--- a/assets/foodInfoTable.xlsx
+++ b/assets/foodInfoTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\tats-app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7019635C-797F-431A-9F96-9C62845D9A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD6370B-B97A-4D26-B8B0-BAF3879EC508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4908" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{089C9EFE-865B-8C43-A63A-516A71BBBB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{089C9EFE-865B-8C43-A63A-516A71BBBB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$E$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>Yemek İsmi</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Baklava</t>
   </si>
   <si>
-    <t>Bezelye Yemeği</t>
-  </si>
-  <si>
     <t>Bulgur Pilavı</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Lahmacun</t>
   </si>
   <si>
-    <t>Meyve</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meyve </t>
   </si>
   <si>
@@ -281,7 +275,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>casus</t>
+    <t>Etli Bezelye Yemeği</t>
+  </si>
+  <si>
+    <t>Etli Kuru Fasulye</t>
+  </si>
+  <si>
+    <t>Tavuk Julian</t>
+  </si>
+  <si>
+    <t>Tulumba</t>
   </si>
 </sst>
 </file>
@@ -654,11 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FE985-038E-1246-9EA9-38E094408547}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -680,11 +682,14 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2">
@@ -697,9 +702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -714,12 +719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -736,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>225</v>
@@ -748,9 +753,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -767,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>370</v>
@@ -779,9 +787,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -796,32 +804,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="D10">
         <v>33</v>
@@ -830,15 +838,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>33</v>
@@ -847,15 +855,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D12">
         <v>33</v>
@@ -864,12 +872,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>368</v>
@@ -883,64 +891,64 @@
     </row>
     <row r="14" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -949,15 +957,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -966,9 +974,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -983,15 +991,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -1000,43 +1008,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1051,15 +1059,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1068,15 +1076,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1085,18 +1093,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -1104,47 +1112,47 @@
     </row>
     <row r="27" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>435</v>
+        <v>164</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1155,16 +1163,16 @@
     </row>
     <row r="30" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -1172,13 +1180,13 @@
     </row>
     <row r="31" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D31">
         <v>33</v>
@@ -1187,15 +1195,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="D32">
         <v>33</v>
@@ -1204,32 +1212,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1238,151 +1246,151 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C35">
+        <v>275</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
         <v>37</v>
       </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>405</v>
-      </c>
       <c r="D36">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>480</v>
+        <v>255</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>155</v>
+        <v>480</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>33</v>
@@ -1391,15 +1399,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="D44">
         <v>33</v>
@@ -1408,49 +1416,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -1461,183 +1469,183 @@
     </row>
     <row r="48" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="22.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>515</v>
+        <v>344</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D58">
         <v>26</v>
@@ -1648,132 +1656,132 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>295</v>
+        <v>130</v>
       </c>
       <c r="D59">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>480</v>
+        <v>295</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C62">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>267</v>
+        <v>480</v>
       </c>
       <c r="D66">
         <v>100</v>
@@ -1782,15 +1790,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="D67">
         <v>100</v>
@@ -1799,15 +1807,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="D68">
         <v>100</v>
@@ -1816,66 +1824,66 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="D69">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="D70">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="D72">
         <v>33</v>
@@ -1884,15 +1892,61 @@
         <v>70</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73">
+        <v>210</v>
+      </c>
+      <c r="D73">
+        <v>80</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>140</v>
+      </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>126</v>
+      </c>
+      <c r="D75">
+        <v>33</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E72" xr:uid="{A43FE985-038E-1246-9EA9-38E094408547}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Tatlı"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E72">
-      <sortCondition ref="E1:E72"/>
+  <autoFilter ref="A1:E75" xr:uid="{A43FE985-038E-1246-9EA9-38E094408547}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
+      <sortCondition ref="E1:E75"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
